--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="20170920" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>颇尔奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,7 +530,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +619,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -702,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +737,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -745,44 +764,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1104,80 +1123,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="15"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="19"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="19" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="20"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="17" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1189,19 +1208,19 @@
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
@@ -1209,19 +1228,19 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="17"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
@@ -1229,19 +1248,19 @@
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -1249,19 +1268,19 @@
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="17"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -1269,19 +1288,19 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="17"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -1289,19 +1308,19 @@
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="17"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
@@ -1309,19 +1328,19 @@
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="17"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -1329,19 +1348,19 @@
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="17"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -1349,19 +1368,19 @@
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="17"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -1369,19 +1388,19 @@
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="17"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -1389,19 +1408,19 @@
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="17"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -1409,42 +1428,49 @@
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="32">
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B4:H4"/>
@@ -1457,17 +1483,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B15:H15"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
@@ -1479,6 +1494,8 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1488,15 +1505,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <sheetFormatPr defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.5" style="3" customWidth="1"/>
+    <col min="2" max="10" width="8" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="30.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.06" bottom="0.43" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1512,4 +1892,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7384226F-2724-AE42-89A1-716A458EE273}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860" activeTab="1"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
   <si>
     <t>颇尔奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,12 +530,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -578,7 +579,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -621,7 +622,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -709,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,54 +759,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -821,7 +831,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -896,6 +906,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -931,6 +958,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1106,31 +1150,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="31" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.5" style="3" customWidth="1"/>
     <col min="2" max="10" width="8" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="20.5" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1140,63 +1184,63 @@
       </c>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:12" ht="42.75" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="21" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="31" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="19" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="28"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1204,7 +1248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="29.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1217,14 +1261,14 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="17"/>
+      <c r="I5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="29"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="29.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1237,14 +1281,14 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="17"/>
+      <c r="I6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="29"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="29.25" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1257,14 +1301,14 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="17"/>
+      <c r="I7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="29"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="29.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1277,14 +1321,14 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="17"/>
+      <c r="I8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="29"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="29.25" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1297,14 +1341,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="17"/>
+      <c r="I9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="29"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="29.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1317,14 +1361,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="17"/>
+      <c r="I10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="29"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="29.25" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1337,18 +1381,18 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="17"/>
+      <c r="I11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="29"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="29.25" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="14"/>
@@ -1357,14 +1401,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="17"/>
+      <c r="I12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="29"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="29.25" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1377,14 +1421,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="17"/>
+      <c r="I13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="29"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="29.25" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1397,14 +1441,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="17"/>
+      <c r="I14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="29"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="29.25" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1417,14 +1461,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="17"/>
+      <c r="I15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="29"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="30.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="31" hidden="1" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1437,39 +1481,41 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="29" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="28.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A2:L2"/>
@@ -1486,16 +1532,14 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1504,30 +1548,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="31" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.5" style="3" customWidth="1"/>
     <col min="2" max="10" width="8" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1536,64 +1580,62 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:11" ht="42.75" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="21" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="31" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="19" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" ht="29.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1606,13 +1648,13 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" ht="29.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1625,13 +1667,13 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" ht="29.25" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1644,13 +1686,13 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:11" ht="29.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1663,13 +1705,13 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1682,13 +1724,13 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1701,13 +1743,13 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" ht="29.25" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1720,17 +1762,17 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="1:11" ht="29.25" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="14"/>
@@ -1739,13 +1781,13 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="1:11" ht="29.25" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1758,13 +1800,13 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="33"/>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" ht="29.25" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1777,13 +1819,13 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="1:11" ht="29.25" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1796,13 +1838,13 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="30.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="1:11" ht="31" hidden="1" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1815,15 +1857,15 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="29" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="28.5" customHeight="1">
       <c r="A17" s="30" t="s">
         <v>32</v>
       </c>
@@ -1840,38 +1882,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1881,12 +1923,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1895,12 +1937,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7384226F-2724-AE42-89A1-716A458EE273}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D32B52F-FD7A-AB42-9259-1FDF1857D580}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -635,7 +635,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -704,13 +704,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,59 +770,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,14 +1181,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1185,40 +1199,40 @@
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1228,19 +1242,19 @@
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="18" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="27"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1261,10 +1275,10 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="29"/>
+      <c r="I5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
@@ -1281,10 +1295,10 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="29"/>
+      <c r="I6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="17"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
@@ -1301,10 +1315,10 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="29"/>
+      <c r="I7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -1321,10 +1335,10 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="29"/>
+      <c r="I8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="17"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -1341,10 +1355,10 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="29"/>
+      <c r="I9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="17"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -1361,10 +1375,10 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="29"/>
+      <c r="I10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="17"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
@@ -1381,10 +1395,10 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="29"/>
+      <c r="I11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="17"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -1392,7 +1406,7 @@
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="14"/>
@@ -1401,10 +1415,10 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="29"/>
+      <c r="I12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="17"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -1421,10 +1435,10 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="29"/>
+      <c r="I13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="17"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -1441,10 +1455,10 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="29"/>
+      <c r="I14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="17"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -1461,10 +1475,10 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="29"/>
+      <c r="I15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="17"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -1481,10 +1495,10 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
@@ -1494,28 +1508,28 @@
       <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A2:L2"/>
@@ -1532,14 +1546,14 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1552,7 +1566,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="31" customHeight="1"/>
@@ -1564,76 +1578,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="31" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="18" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -1648,11 +1662,11 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="29"/>
+      <c r="I5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -1667,11 +1681,11 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="29"/>
+      <c r="I6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -1686,11 +1700,11 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="29"/>
+      <c r="I7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="29.25" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -1705,11 +1719,11 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -1724,11 +1738,11 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="29"/>
+      <c r="I9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -1743,11 +1757,11 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="29"/>
+      <c r="I10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="29.25" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -1762,17 +1776,17 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="14"/>
@@ -1781,11 +1795,11 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="29"/>
+      <c r="I12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -1800,11 +1814,11 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="29"/>
+      <c r="I13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="29.25" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -1819,11 +1833,11 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="29.25" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -1838,11 +1852,11 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="29"/>
+      <c r="I15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:11" ht="31" hidden="1" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -1857,10 +1871,10 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
@@ -1882,6 +1896,31 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="A17:K17"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
@@ -1889,31 +1928,6 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D32B52F-FD7A-AB42-9259-1FDF1857D580}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9AFD8870-8C0D-634E-954E-28D0F3CC6DCB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,7 +635,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -704,24 +704,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,62 +759,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,14 +1167,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1199,40 +1185,40 @@
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1242,19 +1228,19 @@
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="24" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1275,10 +1261,10 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="17"/>
+      <c r="I5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="29"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
@@ -1295,10 +1281,10 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="17"/>
+      <c r="I6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="29"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
@@ -1315,10 +1301,10 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="17"/>
+      <c r="I7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="29"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -1335,10 +1321,10 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="17"/>
+      <c r="I8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="29"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -1355,10 +1341,10 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="17"/>
+      <c r="I9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="29"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -1375,10 +1361,10 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="17"/>
+      <c r="I10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="29"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
@@ -1395,10 +1381,10 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="17"/>
+      <c r="I11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="29"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -1406,7 +1392,7 @@
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="14"/>
@@ -1415,10 +1401,10 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="17"/>
+      <c r="I12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="29"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -1435,10 +1421,10 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="17"/>
+      <c r="I13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="29"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -1455,10 +1441,10 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="17"/>
+      <c r="I14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="29"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -1475,10 +1461,10 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="17"/>
+      <c r="I15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="29"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -1495,10 +1481,10 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="29" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
@@ -1508,28 +1494,28 @@
       <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A2:L2"/>
@@ -1546,14 +1532,14 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1566,88 +1552,92 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="31" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.5" style="3" customWidth="1"/>
-    <col min="2" max="10" width="8" style="3" customWidth="1"/>
+    <col min="2" max="4" width="8" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="8" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="8" style="3" customWidth="1"/>
     <col min="11" max="11" width="20.1640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="31" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="24" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -1662,11 +1652,11 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="17"/>
+      <c r="I5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -1681,11 +1671,11 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="17"/>
+      <c r="I6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -1700,11 +1690,11 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="17"/>
+      <c r="I7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="29.25" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -1719,11 +1709,11 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="17"/>
+      <c r="I8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="32"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -1738,11 +1728,11 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="17"/>
+      <c r="I9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="32"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -1757,11 +1747,11 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="17"/>
+      <c r="I10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="32"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="29.25" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -1776,17 +1766,17 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="17"/>
+      <c r="I11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="14"/>
@@ -1795,11 +1785,11 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="17"/>
+      <c r="I12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -1814,11 +1804,11 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="17"/>
+      <c r="I13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:11" ht="29.25" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -1833,11 +1823,11 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="17"/>
+      <c r="I14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" ht="29.25" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -1852,11 +1842,11 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="17"/>
+      <c r="I15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="31" hidden="1" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -1871,31 +1861,56 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="29" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:K2"/>
@@ -1903,31 +1918,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9AFD8870-8C0D-634E-954E-28D0F3CC6DCB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FCEC4915-33DE-9E43-ABE7-C5D17D3F568F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,46 +759,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -806,12 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,14 +1167,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1185,40 +1185,40 @@
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1228,19 +1228,19 @@
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="18" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="27"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1261,10 +1261,10 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="29"/>
+      <c r="I5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
@@ -1281,10 +1281,10 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="29"/>
+      <c r="I6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="17"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
@@ -1301,10 +1301,10 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="29"/>
+      <c r="I7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -1321,10 +1321,10 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="29"/>
+      <c r="I8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="17"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -1341,10 +1341,10 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="29"/>
+      <c r="I9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="17"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -1361,10 +1361,10 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="29"/>
+      <c r="I10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="17"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
@@ -1381,10 +1381,10 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="29"/>
+      <c r="I11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="17"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -1392,7 +1392,7 @@
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="14"/>
@@ -1401,10 +1401,10 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="29"/>
+      <c r="I12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="17"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -1421,10 +1421,10 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="29"/>
+      <c r="I13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="17"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -1441,10 +1441,10 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="29"/>
+      <c r="I14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="17"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -1461,10 +1461,10 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="29"/>
+      <c r="I15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="17"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -1481,10 +1481,10 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
@@ -1494,28 +1494,28 @@
       <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A2:L2"/>
@@ -1532,14 +1532,14 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1552,7 +1552,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="31" customHeight="1"/>
@@ -1563,19 +1563,19 @@
     <col min="6" max="7" width="8" style="3" customWidth="1"/>
     <col min="8" max="8" width="4.33203125" style="3" customWidth="1"/>
     <col min="9" max="10" width="8" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="29.1640625" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1585,59 +1585,59 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="31" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="18" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -1652,11 +1652,11 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="29"/>
+      <c r="I5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -1671,11 +1671,11 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="29"/>
+      <c r="I6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -1690,11 +1690,11 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="29"/>
+      <c r="I7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="29.25" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -1709,11 +1709,11 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -1728,11 +1728,11 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="29"/>
+      <c r="I9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -1747,11 +1747,11 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="29"/>
+      <c r="I10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="29.25" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -1766,17 +1766,17 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="14"/>
@@ -1785,11 +1785,11 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="29"/>
+      <c r="I12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -1804,11 +1804,11 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="29"/>
+      <c r="I13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="29.25" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -1823,11 +1823,11 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="29.25" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -1842,11 +1842,11 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="29"/>
+      <c r="I15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:11" ht="31" hidden="1" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -1861,31 +1861,56 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="A17:K17"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
@@ -1893,31 +1918,6 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FCEC4915-33DE-9E43-ABE7-C5D17D3F568F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BDE3D5ED-DBE9-1C4E-BE55-4BD303F00BC8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,9 +747,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -759,59 +756,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,14 +1167,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1185,40 +1185,40 @@
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1228,16 +1228,16 @@
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="26"/>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="17" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="26"/>
@@ -1252,19 +1252,19 @@
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="17"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="28"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
@@ -1272,19 +1272,19 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="17"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="28"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
@@ -1292,19 +1292,19 @@
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="17"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="28"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -1312,19 +1312,19 @@
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="17"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="28"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -1332,19 +1332,19 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="17"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="28"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -1352,19 +1352,19 @@
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="17"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="28"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
@@ -1372,19 +1372,19 @@
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="17"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="28"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -1392,19 +1392,19 @@
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="17"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="28"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -1412,19 +1412,19 @@
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="17"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="28"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -1432,19 +1432,19 @@
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="17"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="28"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -1452,19 +1452,19 @@
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="17"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="28"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -1472,50 +1472,50 @@
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="28" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="28.5" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A2:L2"/>
@@ -1532,14 +1532,14 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1552,7 +1552,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="31" customHeight="1"/>
@@ -1568,14 +1568,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1585,307 +1585,332 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="12"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="31" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="26"/>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="27" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="31"/>
-      <c r="K5" s="17"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="27" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="31"/>
-      <c r="K6" s="17"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="27" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="31"/>
-      <c r="K7" s="17"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="29.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="27" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="31"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="27" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="31"/>
-      <c r="K9" s="17"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="27" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="31"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="1:11" ht="29.25" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="27" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="31"/>
-      <c r="K11" s="17"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="27" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="31"/>
-      <c r="K12" s="17"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="27" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="31"/>
-      <c r="K13" s="17"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11" ht="29.25" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="27" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="31"/>
-      <c r="K14" s="17"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" ht="29.25" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="27" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="31"/>
-      <c r="K15" s="17"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" ht="31" hidden="1" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="28" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:K2"/>
@@ -1893,31 +1918,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BDE3D5ED-DBE9-1C4E-BE55-4BD303F00BC8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EA5987E1-CEBC-E842-96DD-30E4A59E4A59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,6 +747,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -756,46 +759,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -803,15 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,14 +1167,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1185,40 +1185,40 @@
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="19" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1228,16 +1228,16 @@
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="26"/>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="26"/>
@@ -1252,19 +1252,19 @@
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="28"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
@@ -1272,19 +1272,19 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="28"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="17"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
@@ -1292,19 +1292,19 @@
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="28"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -1312,19 +1312,19 @@
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="28"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="17"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -1332,19 +1332,19 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="28"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="17"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -1352,19 +1352,19 @@
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="28"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="17"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
@@ -1372,19 +1372,19 @@
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="28"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="17"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -1392,19 +1392,19 @@
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="28"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="17"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -1412,19 +1412,19 @@
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="28"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="17"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -1432,19 +1432,19 @@
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="28"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="17"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -1452,19 +1452,19 @@
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="28"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="17"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -1472,50 +1472,50 @@
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="27" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="28.5" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A2:L2"/>
@@ -1532,14 +1532,14 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1552,7 +1552,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B12" sqref="B12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="31" customHeight="1"/>
@@ -1568,14 +1568,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1585,307 +1585,332 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="19" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="33"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="31" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="26"/>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="27" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="31"/>
-      <c r="K5" s="28"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="27" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="31"/>
-      <c r="K6" s="28"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="27" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="31"/>
-      <c r="K7" s="28"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="29.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="27" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="31"/>
-      <c r="K8" s="28"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="27" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="31"/>
-      <c r="K9" s="28"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="27" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="31"/>
-      <c r="K10" s="28"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="29.25" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="27" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="31"/>
-      <c r="K11" s="28"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="27" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="31"/>
-      <c r="K12" s="28"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="27" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="31"/>
-      <c r="K13" s="28"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="29.25" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="27" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="31"/>
-      <c r="K14" s="28"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="29.25" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="27" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="31"/>
-      <c r="K15" s="28"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:11" ht="31" hidden="1" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="27" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="A17:K17"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
@@ -1893,31 +1918,6 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EA5987E1-CEBC-E842-96DD-30E4A59E4A59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C515BF37-6AB2-2C4F-B43C-9335AE45E2F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>颇尔奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,6 +525,9 @@
   <si>
     <t>SOP-MFG-301-R03A</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：N/A。</t>
   </si>
 </sst>
 </file>
@@ -759,59 +762,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,14 +1170,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1185,40 +1188,40 @@
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
@@ -1228,19 +1231,19 @@
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="24" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1261,10 +1264,10 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="17"/>
+      <c r="I5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="29"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
@@ -1281,10 +1284,10 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="17"/>
+      <c r="I6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="29"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
@@ -1301,10 +1304,10 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="17"/>
+      <c r="I7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="29"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -1321,10 +1324,10 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="17"/>
+      <c r="I8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="29"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -1341,10 +1344,10 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="17"/>
+      <c r="I9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="29"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -1361,10 +1364,10 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="17"/>
+      <c r="I10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="29"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
@@ -1381,10 +1384,10 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="17"/>
+      <c r="I11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="29"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -1392,7 +1395,7 @@
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="14"/>
@@ -1401,10 +1404,10 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="17"/>
+      <c r="I12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="29"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -1421,10 +1424,10 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="17"/>
+      <c r="I13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="29"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -1441,10 +1444,10 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="17"/>
+      <c r="I14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="29"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -1461,10 +1464,10 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="17"/>
+      <c r="I15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="29"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -1481,10 +1484,10 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="29" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
@@ -1494,28 +1497,28 @@
       <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A2:L2"/>
@@ -1532,14 +1535,14 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1552,7 +1555,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="31" customHeight="1"/>
@@ -1568,14 +1571,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1585,59 +1588,59 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="31" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="31" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="24" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="29.25" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -1652,11 +1655,11 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="17"/>
+      <c r="I5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="29.25" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -1671,11 +1674,11 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="17"/>
+      <c r="I6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -1690,11 +1693,11 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="17"/>
+      <c r="I7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="29.25" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -1709,11 +1712,11 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="17"/>
+      <c r="I8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="32"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -1728,11 +1731,11 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="17"/>
+      <c r="I9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="32"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="29.25" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -1747,11 +1750,11 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="17"/>
+      <c r="I10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="32"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="29.25" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -1766,11 +1769,11 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="17"/>
+      <c r="I11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1">
       <c r="A12" s="5" t="s">
@@ -1785,11 +1788,11 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="17"/>
+      <c r="I12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -1804,11 +1807,11 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="17"/>
+      <c r="I13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:11" ht="29.25" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -1823,11 +1826,11 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="17"/>
+      <c r="I14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" ht="29.25" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -1842,11 +1845,11 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="17"/>
+      <c r="I15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="31" hidden="1" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -1861,31 +1864,56 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="29" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A17" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="A17" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:K2"/>
@@ -1893,31 +1921,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R03 吹膜机组清洁记录.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C515BF37-6AB2-2C4F-B43C-9335AE45E2F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="465" windowWidth="27945" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>颇尔奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,17 +527,49 @@
   </si>
   <si>
     <t>备注：N/A。</t>
+  </si>
+  <si>
+    <t>是 □   否 □</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 □   否 □</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 □   否 □</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 □   否 □</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 □   否 □</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 □   否 □</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 □   否 □</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁人</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -582,7 +613,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -625,9 +656,25 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -638,7 +685,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -707,13 +754,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,8 +819,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -762,63 +831,78 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -834,7 +918,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -909,23 +993,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -961,23 +1028,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1153,31 +1203,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="31" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" style="3" customWidth="1"/>
     <col min="2" max="10" width="8" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="3" customWidth="1"/>
     <col min="12" max="12" width="20.5" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1187,63 +1237,63 @@
       </c>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:12" ht="31" customHeight="1">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" ht="31" customHeight="1">
+    <row r="4" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="18" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="27"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1251,7 +1301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="29.25" customHeight="1">
+    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1264,14 +1314,14 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="29"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="29.25" customHeight="1">
+    <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1284,14 +1334,14 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="29"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="29.25" customHeight="1">
+    <row r="7" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1304,14 +1354,14 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="29.25" customHeight="1">
+    <row r="8" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1324,14 +1374,14 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="29"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="29.25" customHeight="1">
+    <row r="9" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1344,14 +1394,14 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="29"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="29.25" customHeight="1">
+    <row r="10" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1364,14 +1414,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="29.25" customHeight="1">
+    <row r="11" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1384,18 +1434,18 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="29.25" customHeight="1">
+    <row r="12" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="14"/>
@@ -1404,14 +1454,14 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="29.25" customHeight="1">
+    <row r="13" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1424,14 +1474,14 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="29"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="29.25" customHeight="1">
+    <row r="14" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1444,14 +1494,14 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="29"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="29.25" customHeight="1">
+    <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1464,14 +1514,14 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="29"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="31" hidden="1" customHeight="1">
+    <row r="16" spans="1:12" ht="30.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1484,41 +1534,41 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="28.5" customHeight="1">
+    <row r="17" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A2:L2"/>
@@ -1535,14 +1585,14 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1551,34 +1601,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="31" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" style="3" customWidth="1"/>
     <col min="2" max="4" width="8" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="3" customWidth="1"/>
     <col min="6" max="7" width="8" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.375" style="3" customWidth="1"/>
     <col min="9" max="10" width="8" style="3" customWidth="1"/>
-    <col min="11" max="11" width="29.1640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="29.125" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1587,62 +1637,64 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" ht="31" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="31" customHeight="1">
+      <c r="J3" s="19"/>
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="18" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="29.25" customHeight="1">
+    </row>
+    <row r="5" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1655,13 +1707,13 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" ht="29.25" customHeight="1">
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1674,13 +1726,13 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="1:11" ht="29.25" customHeight="1">
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1693,13 +1745,13 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="1:11" ht="29.25" customHeight="1">
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1712,13 +1764,13 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" ht="29.25" customHeight="1">
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1731,13 +1783,13 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="29"/>
-    </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1">
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1750,13 +1802,13 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="1:11" ht="29.25" customHeight="1">
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1769,13 +1821,13 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="1:11" ht="29.25" customHeight="1">
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1788,13 +1840,13 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="29"/>
-    </row>
-    <row r="13" spans="1:11" ht="29.25" customHeight="1">
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1807,13 +1859,13 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" ht="29.25" customHeight="1">
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1826,13 +1878,13 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="29"/>
-    </row>
-    <row r="15" spans="1:11" ht="29.25" customHeight="1">
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1845,13 +1897,13 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" ht="31" hidden="1" customHeight="1">
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1864,63 +1916,63 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1930,12 +1982,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1944,12 +1996,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
